--- a/Assets/Data/TestData.xlsx
+++ b/Assets/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10991"/>
+    <workbookView windowWidth="22176" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="1333">
   <si>
     <t>id</t>
   </si>
@@ -774,6 +774,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF060607"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: </t>
     </r>
     <r>
@@ -1490,6 +1496,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF060607"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A: </t>
     </r>
     <r>
@@ -7432,9 +7444,6 @@
   </si>
   <si>
     <t>在进行游泳比赛时，为了减少手腕的疲劳，应该注意哪些方面？</t>
-  </si>
-  <si>
-    <t>A: 进行手腕的力量和耐力训练,B: 学习和掌握正确的游泳姿势,C: 在比赛中忽视手腕的保护,D: 进行充分的热身和冷却</t>
   </si>
 </sst>
 </file>
@@ -8489,8 +8498,8 @@
   <sheetPr/>
   <dimension ref="A1:H713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -11640,7 +11649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" ht="15.6" spans="1:5">
       <c r="A186" s="7">
         <v>184</v>
       </c>
@@ -12348,7 +12357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" ht="15.6" spans="1:5">
       <c r="A228" s="7">
         <v>226</v>
       </c>
@@ -21251,15 +21260,9 @@
       </c>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="7">
-        <v>716</v>
-      </c>
-      <c r="C713" s="17" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E713" s="4" t="s">
-        <v>527</v>
-      </c>
+      <c r="A713" s="7"/>
+      <c r="C713" s="17"/>
+      <c r="E713" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
